--- a/data/trans_dic/P56$privada-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P56$privada-Provincia-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.1120384277106328</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3471937558978791</v>
+        <v>0.3471937558978792</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2401487708917434</v>
+        <v>0.2088243149389462</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02994071354986432</v>
+        <v>0.02916792654407904</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1629869615465719</v>
+        <v>0.1694872776502895</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7303221078064218</v>
+        <v>1</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5691602557741712</v>
+        <v>0.5697025740290415</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3857171584831698</v>
+        <v>0.4153951714534914</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4467558906317671</v>
+        <v>0.6124421385286031</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.3113923714447097</v>
+        <v>0.267594367309068</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3714128840698143</v>
+        <v>0.3327215069690971</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7131113837884101</v>
+        <v>0.7389885351468199</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6103700699365711</v>
+        <v>0.60442636152837</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2128397959099405</v>
+        <v>0.2540583593260949</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2984313345462276</v>
+        <v>0.2840513100142387</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5636251069008227</v>
+        <v>0.5701903451825093</v>
       </c>
     </row>
     <row r="7">
@@ -845,31 +845,31 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07155680709014411</v>
+        <v>0.07547712207803371</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08784381734305007</v>
+        <v>0.08699511419680744</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.09148178889495601</v>
+        <v>0.09802257161145539</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06381271107449706</v>
+        <v>0.06675460868931817</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1202409615228166</v>
+        <v>0.1217039415029589</v>
       </c>
     </row>
     <row r="9">
@@ -882,34 +882,34 @@
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.6275084192307155</v>
+        <v>0.6954098930296956</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5746936461074569</v>
+        <v>0.5751929156127094</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4075801042319011</v>
+        <v>0.4072001352921789</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3819703279176695</v>
+        <v>0.3787014863340668</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3709369441148521</v>
+        <v>0.3184512634007654</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2718565704703658</v>
+        <v>0.2794987000444124</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2881417661210587</v>
+        <v>0.2825093487157499</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3046422471232103</v>
+        <v>0.3080021377566873</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.304242219777949</v>
+        <v>0.2896837786191464</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2868913546162803</v>
+        <v>0.2988365793749868</v>
       </c>
     </row>
     <row r="10">
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03081101039412697</v>
+        <v>0.0309377821086168</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -982,10 +982,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1026361130604561</v>
+        <v>0.09211802281123638</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1451305177519297</v>
+        <v>0.1394834187417467</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1366725567372795</v>
+        <v>0.1197615261220473</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1178376563275862</v>
+        <v>0.1173966495240562</v>
       </c>
     </row>
     <row r="12">
@@ -1010,34 +1010,34 @@
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.771684029278402</v>
+        <v>0.7566938763821903</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2783575722848553</v>
+        <v>0.2698984736810786</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5549696172066335</v>
+        <v>0.5544884735519556</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3441317582366928</v>
+        <v>0.3727340733075918</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7384957249848637</v>
+        <v>0.7214125080433598</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3545281833025321</v>
+        <v>0.3552579676500219</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4324592620974203</v>
+        <v>0.4368864360527552</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2467326531215886</v>
+        <v>0.228084302501896</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6250833880992913</v>
+        <v>0.5980170681882394</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2771139111929664</v>
+        <v>0.2723260470746561</v>
       </c>
     </row>
     <row r="13">
@@ -1061,7 +1061,7 @@
         <v>0.08441714871777654</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06142288271687123</v>
+        <v>0.06142288271687122</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.09796418215184165</v>
@@ -1115,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.148669738747519</v>
+        <v>0.1597152371753936</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03304891037138427</v>
+        <v>0.03318490978089569</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02578322679625604</v>
+        <v>0.02557704657594516</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1218073569710214</v>
+        <v>0.112089929121228</v>
       </c>
     </row>
     <row r="15">
@@ -1139,37 +1139,37 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.6346436077457045</v>
+        <v>0.6392484287820459</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3528643533252998</v>
+        <v>0.3571385175262933</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2641417748532473</v>
+        <v>0.2589422918387765</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4883999710559086</v>
+        <v>0.4995454018283247</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2804146705462181</v>
+        <v>0.2793094260927639</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3795431726382772</v>
+        <v>0.383652580355354</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4040998791884521</v>
+        <v>0.4067600325337709</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3969553732828945</v>
+        <v>0.3987123522376697</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2483992660916841</v>
+        <v>0.2462599252177131</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3358319843628225</v>
+        <v>0.3191204318636424</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3085249274265571</v>
+        <v>0.302962013408137</v>
       </c>
     </row>
     <row r="16">
@@ -1205,7 +1205,7 @@
         <v>0.1867177153761027</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1667875515418166</v>
+        <v>0.1667875515418167</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1510524184809514</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05064956258061572</v>
+        <v>0.0500541603408065</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07202706666117797</v>
+        <v>0.07090841987409112</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04206068236031076</v>
+        <v>0.04179315576730196</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07642606464467465</v>
+        <v>0.07846640905875683</v>
       </c>
     </row>
     <row r="18">
@@ -1273,35 +1273,35 @@
         <v>0.8</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6699833948147608</v>
+        <v>0.6676746832060865</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.3649621340340141</v>
+        <v>0.3737653321352594</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6620144457298941</v>
+        <v>0.6241232257052782</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3790922220342937</v>
+        <v>0.3817394911940203</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4882838709655464</v>
+        <v>0.4865178327700631</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3158298126011815</v>
+        <v>0.2968341854812804</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4453815982653705</v>
+        <v>0.4426923371554886</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3719820079773777</v>
+        <v>0.3358413370441841</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4532238161424435</v>
+        <v>0.5083082298676626</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2765957501871995</v>
+        <v>0.2760080522107544</v>
       </c>
     </row>
     <row r="19">
@@ -1369,31 +1369,31 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07411220488547686</v>
+        <v>0.07136947678409973</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.05354892504013527</v>
+        <v>0.05379909828913414</v>
       </c>
       <c r="I20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.07247853922819894</v>
+        <v>0.07449700078113131</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.06723965966247565</v>
+        <v>0.06363159837344234</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.06683111747654326</v>
+        <v>0.06713567377317306</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02655004427815281</v>
+        <v>0.02734007597673231</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.09272857965346895</v>
+        <v>0.09112342412364004</v>
       </c>
     </row>
     <row r="21">
@@ -1407,37 +1407,37 @@
         <v>0.7697331928915221</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5032050733418271</v>
+        <v>0.4574806260104785</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3809323375397142</v>
+        <v>0.3868963650762255</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3180526129881691</v>
+        <v>0.3086018022100099</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5420078550414896</v>
+        <v>0.6099937694077668</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4285595534591488</v>
+        <v>0.4751890554326004</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4434964355820322</v>
+        <v>0.4465714818719537</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2212455138623945</v>
+        <v>0.2273741296158568</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5583764777154808</v>
+        <v>0.5345932955532724</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3385891609950826</v>
+        <v>0.3389002647255611</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3576081158204682</v>
+        <v>0.3518449304672284</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2196853002934948</v>
+        <v>0.2168644785749154</v>
       </c>
     </row>
     <row r="22">
@@ -1502,32 +1502,32 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04535612641807501</v>
+        <v>0.04456760663160813</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="n">
-        <v>0.08044444501586742</v>
+        <v>0.0919036768344368</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.05998438750605554</v>
+        <v>0.05887573035854194</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.050088516639608</v>
+        <v>0.04481097217768037</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.08325829925337959</v>
+        <v>0.08450992123946417</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.05709940880804355</v>
+        <v>0.07668593940852056</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.04471986356223152</v>
+        <v>0.04674096741754884</v>
       </c>
     </row>
     <row r="24">
@@ -1538,38 +1538,38 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6712060631678278</v>
+        <v>0.6791951955069513</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3950322590040712</v>
+        <v>0.3937086811639884</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4206181519144699</v>
+        <v>0.393171323140077</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3198376552196814</v>
+        <v>0.2779251197224006</v>
       </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="n">
-        <v>0.3774920688709658</v>
+        <v>0.3954436673568009</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2972038052992912</v>
+        <v>0.3065311677612086</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2098924091631629</v>
+        <v>0.1900544593800573</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4944678934745612</v>
+        <v>0.3928950126058638</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3339506346649838</v>
+        <v>0.3348714118377303</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2579418020487027</v>
+        <v>0.2777330445578257</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1827112051745325</v>
+        <v>0.1804984249994648</v>
       </c>
     </row>
     <row r="25">
@@ -1617,7 +1617,7 @@
         <v>0.1515756322560878</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.1836216921269167</v>
+        <v>0.1836216921269168</v>
       </c>
     </row>
     <row r="26">
@@ -1633,31 +1633,31 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05822742238183766</v>
+        <v>0.06644552222197299</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.0355768970977605</v>
+        <v>0.03543728846561991</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.0562144015573519</v>
+        <v>0.05685472821524221</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1136834650582154</v>
+        <v>0.1179366581824352</v>
       </c>
       <c r="K26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02668409196999395</v>
+        <v>0.02670945674481511</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.04167846458482083</v>
+        <v>0.04146479459639843</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1239690826936899</v>
+        <v>0.1200512595370332</v>
       </c>
     </row>
     <row r="27">
@@ -1670,34 +1670,34 @@
       <c r="C27" s="5" t="inlineStr"/>
       <c r="D27" s="5" t="inlineStr"/>
       <c r="E27" s="5" t="n">
-        <v>0.4455769856618189</v>
+        <v>0.4441313126053683</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3182788204891726</v>
+        <v>0.323202078324277</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2225301698656578</v>
+        <v>0.2256357011818191</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.265518579514039</v>
+        <v>0.291618994602555</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.4080798367430954</v>
+        <v>0.4045842683730118</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2720519195652311</v>
+        <v>0.2847844646282028</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1508691671942264</v>
+        <v>0.1414406228512023</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2037697026198119</v>
+        <v>0.2214508050872448</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3430374768289067</v>
+        <v>0.3207846674888387</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2567135091666771</v>
+        <v>0.256217272607898</v>
       </c>
     </row>
     <row r="28">
@@ -1721,7 +1721,7 @@
         <v>0.1351821428706154</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.1482351596738313</v>
+        <v>0.1482351596738314</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.1154378850327528</v>
@@ -1745,7 +1745,7 @@
         <v>0.1488993992933316</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.1718817726983657</v>
+        <v>0.1718817726983658</v>
       </c>
     </row>
     <row r="29">
@@ -1756,40 +1756,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.018181376761014</v>
+        <v>0.01837348025444355</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.04062427276805123</v>
+        <v>0.04053167540858277</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.07456329261075115</v>
+        <v>0.07115669828266706</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.09909327364845297</v>
+        <v>0.09736265146777222</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.05938493835998161</v>
+        <v>0.0560636822959904</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.09997042115331738</v>
+        <v>0.09590479593088026</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1004342210611629</v>
+        <v>0.09472128898464305</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1486734213580845</v>
+        <v>0.1484430797209509</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.06070432082553867</v>
+        <v>0.05546334485986106</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.09502748119299462</v>
+        <v>0.09236285276493465</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1042401513849327</v>
+        <v>0.1050385281024619</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1418387389605381</v>
+        <v>0.1450516379981255</v>
       </c>
     </row>
     <row r="30">
@@ -1800,40 +1800,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1575053765667068</v>
+        <v>0.1655899125735037</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1791820635544638</v>
+        <v>0.1853536905330833</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2255368521676862</v>
+        <v>0.2262643532246799</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2108698350659924</v>
+        <v>0.2123886264706817</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2015131229078345</v>
+        <v>0.2034329393930317</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.203319624188977</v>
+        <v>0.203003547946867</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2242724049813964</v>
+        <v>0.2342792439694209</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2202779260496186</v>
+        <v>0.2168962575360646</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1596703249052437</v>
+        <v>0.1621921427739912</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1775890391609752</v>
+        <v>0.1741008541592499</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.2026692568420442</v>
+        <v>0.2086710574097864</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2056875482515922</v>
+        <v>0.2054913006755562</v>
       </c>
     </row>
     <row r="31">
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2030</v>
+        <v>1766</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
@@ -2136,10 +2136,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>848</v>
+        <v>826</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2236</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="7">
@@ -2150,38 +2150,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>2571</v>
+        <v>3520</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>4013</v>
+        <v>4017</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>3831</v>
+        <v>4126</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>2352</v>
+        <v>3225</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>6613</v>
+        <v>5683</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>6830</v>
+        <v>6119</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>6029</v>
+        <v>6248</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>3613</v>
+        <v>3578</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>6021</v>
+        <v>7187</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>8452</v>
+        <v>8045</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>7733</v>
+        <v>7823</v>
       </c>
     </row>
     <row r="8">
@@ -2289,31 +2289,31 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>936</v>
+        <v>987</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3242</v>
+        <v>3211</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>4091</v>
+        <v>4383</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>3103</v>
+        <v>3246</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>6949</v>
+        <v>7034</v>
       </c>
     </row>
     <row r="11">
@@ -2326,34 +2326,34 @@
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>3442</v>
+        <v>3814</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7516</v>
+        <v>7522</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5995</v>
+        <v>5989</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>14099</v>
+        <v>13978</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>6610</v>
+        <v>5674</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>12156</v>
+        <v>12498</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>6220</v>
+        <v>6099</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>14811</v>
+        <v>14975</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>7090</v>
+        <v>6751</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>16580</v>
+        <v>17271</v>
       </c>
     </row>
     <row r="12">
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -2470,10 +2470,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1106</v>
+        <v>992</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4868</v>
+        <v>4679</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2294</v>
+        <v>2010</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>6059</v>
+        <v>6036</v>
       </c>
     </row>
     <row r="15">
@@ -2498,34 +2498,34 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>4639</v>
+        <v>4548</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>4975</v>
+        <v>4824</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6801</v>
+        <v>6795</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6627</v>
+        <v>7178</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7957</v>
+        <v>7772</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>11892</v>
+        <v>11917</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6568</v>
+        <v>6635</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>7038</v>
+        <v>6506</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>10492</v>
+        <v>10038</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>14249</v>
+        <v>14002</v>
       </c>
     </row>
     <row r="16">
@@ -2647,19 +2647,19 @@
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3095</v>
+        <v>3325</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>3696</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="19">
@@ -2671,37 +2671,37 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>5512</v>
+        <v>5552</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>3531</v>
+        <v>3574</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>2514</v>
+        <v>2465</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>5282</v>
+        <v>5402</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>6297</v>
+        <v>6272</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>9460</v>
+        <v>9562</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>8414</v>
+        <v>8469</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>5317</v>
+        <v>5340</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>7735</v>
+        <v>7669</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>11731</v>
+        <v>11147</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>9361</v>
+        <v>9192</v>
       </c>
     </row>
     <row r="20">
@@ -2817,25 +2817,25 @@
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1240</v>
+        <v>1221</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1902</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="23">
@@ -2849,35 +2849,35 @@
         <v>3425</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>4493</v>
+        <v>4477</v>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>2802</v>
+        <v>2869</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>5916</v>
+        <v>5577</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>7468</v>
+        <v>7520</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>5915</v>
+        <v>5894</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>5437</v>
+        <v>5110</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>5887</v>
+        <v>5851</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>9822</v>
+        <v>8868</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5852</v>
+        <v>6564</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>6885</v>
+        <v>6871</v>
       </c>
     </row>
     <row r="24">
@@ -2989,31 +2989,31 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1227</v>
+        <v>1182</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2359</v>
+        <v>2425</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>957</v>
+        <v>906</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>2061</v>
+        <v>2071</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>874</v>
+        <v>900</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>4554</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="27">
@@ -3027,37 +3027,37 @@
         <v>2838</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5359</v>
+        <v>4872</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4119</v>
+        <v>4183</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>5266</v>
+        <v>5109</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>5717</v>
+        <v>6434</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>8655</v>
+        <v>9596</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>9803</v>
+        <v>9871</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>7202</v>
+        <v>7401</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>7948</v>
+        <v>7610</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>10444</v>
+        <v>10453</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>11771</v>
+        <v>11582</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>10788</v>
+        <v>10649</v>
       </c>
     </row>
     <row r="28">
@@ -3166,32 +3166,32 @@
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>905</v>
+        <v>889</v>
       </c>
       <c r="F30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="6" t="inlineStr"/>
       <c r="H30" s="6" t="n">
-        <v>2850</v>
+        <v>3256</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2573</v>
+        <v>2526</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2586</v>
+        <v>2314</v>
       </c>
       <c r="K30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>4245</v>
+        <v>4308</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>3589</v>
+        <v>4820</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>2976</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="31">
@@ -3202,38 +3202,38 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>3482</v>
+        <v>3523</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>6143</v>
+        <v>6123</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>8390</v>
+        <v>7843</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>4768</v>
+        <v>4144</v>
       </c>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="n">
-        <v>13374</v>
+        <v>14010</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>12751</v>
+        <v>13151</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>10837</v>
+        <v>9813</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>4519</v>
+        <v>3591</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>17025</v>
+        <v>17072</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>16212</v>
+        <v>17456</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>12158</v>
+        <v>12011</v>
       </c>
     </row>
     <row r="32">
@@ -3341,31 +3341,31 @@
         <v>0</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1380</v>
+        <v>1575</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1279</v>
+        <v>1294</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>7559</v>
+        <v>7842</v>
       </c>
       <c r="K34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1328</v>
+        <v>1321</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>11181</v>
+        <v>10828</v>
       </c>
     </row>
     <row r="35">
@@ -3378,34 +3378,34 @@
       <c r="C35" s="6" t="inlineStr"/>
       <c r="D35" s="6" t="inlineStr"/>
       <c r="E35" s="6" t="n">
-        <v>4057</v>
+        <v>4043</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>7543</v>
+        <v>7660</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>6661</v>
+        <v>6754</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>7982</v>
+        <v>8767</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>9288</v>
+        <v>9208</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>18090</v>
+        <v>18937</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>7414</v>
+        <v>6951</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>7937</v>
+        <v>8625</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>10931</v>
+        <v>10222</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>23154</v>
+        <v>23110</v>
       </c>
     </row>
     <row r="36">
@@ -3508,40 +3508,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>3189</v>
+        <v>3182</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>5376</v>
+        <v>5130</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>10759</v>
+        <v>10571</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>5555</v>
+        <v>5244</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>20518</v>
+        <v>19684</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>17253</v>
+        <v>16272</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>40949</v>
+        <v>40886</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>8609</v>
+        <v>7866</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>26964</v>
+        <v>26208</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>25423</v>
+        <v>25617</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>54467</v>
+        <v>55701</v>
       </c>
     </row>
     <row r="39">
@@ -3552,40 +3552,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>7605</v>
+        <v>7995</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>14067</v>
+        <v>14551</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>16261</v>
+        <v>16313</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>22895</v>
+        <v>23060</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>18851</v>
+        <v>19030</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>41730</v>
+        <v>41665</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>38527</v>
+        <v>40246</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>60671</v>
+        <v>59740</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>22645</v>
+        <v>23003</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>50391</v>
+        <v>49401</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>49428</v>
+        <v>50892</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>78985</v>
+        <v>78910</v>
       </c>
     </row>
     <row r="40">
